--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,16 +19,16 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$106</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -41,24 +41,56 @@
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$60</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$60</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$106</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$106</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$106</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$12</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$38</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,169 +146,169 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolism_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolism_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenosine- 5’-diphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H15N5O10P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H7NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
   </si>
   <si>
+    <t xml:space="preserve">A[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A[e] ==&gt; A[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B[e] ==&gt; B[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolism_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolism_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenosine- 5’-diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H15N5O10P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H7NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A[e] ==&gt; A[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[e] ==&gt; B[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -715,10 +747,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -730,19 +762,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -753,14 +785,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -773,14 +805,14 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1206,27 +1238,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1237,13 +1269,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1252,13 +1284,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1598,14 +1630,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1621,23 +1653,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1654,14 +1680,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,17 +1703,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1733,10 +1765,10 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1858,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1917,7 +1949,7 @@
         <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>82</v>
@@ -2000,16 +2032,16 @@
         <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>94</v>
@@ -2091,19 +2123,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2121,48 +2153,38 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:F3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2202,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -2213,10 +2235,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1E-015</v>
@@ -2226,10 +2248,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1E-010</v>
@@ -2278,19 +2300,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2301,16 +2323,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>427.201122</v>
@@ -2319,23 +2341,23 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>89.09318</v>
@@ -2344,23 +2366,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>427.201122</v>
@@ -2369,23 +2391,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>89.09318</v>
@@ -2394,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3024,7 +3046,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -3034,8 +3056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3068,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -3060,68 +3082,68 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3157,20 +3179,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -3181,78 +3203,78 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1E-006</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>500000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1.67E-007</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3287,9 +3309,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3301,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -3414,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$12</definedName>
@@ -64,12 +64,12 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -222,70 +222,91 @@
     <t>metabolism_B</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>A</t>
@@ -536,9 +557,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -581,8 +602,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,32 +652,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -641,30 +691,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,39 +734,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,7 +757,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,31 +895,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,139 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +948,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -963,21 +1014,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,17 +1029,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,147 +1048,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,22 +1757,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -1768,13 +1789,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
@@ -1783,13 +1804,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
@@ -1839,19 +1860,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -2881,42 +2902,42 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2955,13 +2976,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3012,13 +3033,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3069,16 +3090,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -3135,16 +3156,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -4175,10 +4196,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4189,10 +4210,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4203,58 +4224,58 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4293,10 +4314,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -4347,28 +4368,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -4419,46 +4440,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4609,30 +4630,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="1028" width="8.575"/>
+    <col min="1" max="1029" width="8.575" style="1"/>
+    <col min="1030" max="1031" width="8.575"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" ht="15.1" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4657,84 +4678,108 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="6">
         <v>1e-15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>1e-16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6">
         <v>1e-10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>1e-11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>41</v>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N3">
+  <autoFilter ref="A1:Q3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4776,19 +4821,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -5818,16 +5863,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -5836,21 +5881,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -5859,21 +5904,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -5882,21 +5927,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -5905,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5923,7 +5968,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -5950,13 +5995,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -5973,86 +6018,86 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6098,19 +6143,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -6127,104 +6172,104 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6266,10 +6311,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -6320,10 +6365,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -423,7 +423,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>transfer_A</t>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>k_cat_B * D[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -557,9 +563,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -594,17 +600,32 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -616,6 +637,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,14 +696,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -654,28 +727,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -696,51 +747,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -757,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,79 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +841,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,13 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,17 +957,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,11 +1001,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,8 +1019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,159 +1054,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,7 +1743,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2953,22 +2959,22 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="1"/>
+    <col min="1" max="1027" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2985,15 +2991,21 @@
         <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3039,7 +3051,7 @@
         <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3090,13 +3102,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>68</v>
@@ -3159,10 +3171,10 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>68</v>
@@ -4196,7 +4208,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>102</v>
@@ -4210,7 +4222,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>102</v>
@@ -4224,7 +4236,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>102</v>
@@ -4233,12 +4245,12 @@
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>102</v>
@@ -4247,35 +4259,35 @@
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>68</v>
@@ -4377,19 +4389,19 @@
         <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -4440,46 +4452,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4632,7 +4644,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$12</definedName>
@@ -64,12 +64,12 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="145">
   <si>
     <t>Id</t>
   </si>
@@ -234,313 +234,334 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>adenosine- 5’-diphosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
+  </si>
+  <si>
+    <t>C10H15N5O10P2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>A[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>A[e]</t>
+  </si>
+  <si>
+    <t>B[c]</t>
+  </si>
+  <si>
+    <t>B[e]</t>
+  </si>
+  <si>
+    <t>C[c]</t>
+  </si>
+  <si>
+    <t>D[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-A[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-A[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-B[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-B[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-C[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-D[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>transfer_A</t>
+  </si>
+  <si>
+    <t>A[e] ==&gt; A[c]</t>
+  </si>
+  <si>
+    <t>transfer_B</t>
+  </si>
+  <si>
+    <t>B[e] ==&gt; B[c]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transfer_A-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_A * C[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>transfer_B-forward</t>
+  </si>
+  <si>
+    <t>k_cat_B * D[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_length</t>
+  </si>
+  <si>
+    <t>cellCycleLength</t>
+  </si>
+  <si>
+    <t>fraction_dry_weight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>k_cat_A</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_B</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>adenosine- 5’-diphosphate</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
-  </si>
-  <si>
-    <t>C10H15N5O10P2</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>alanine</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t>C3H7NO2</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>A[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>A[e]</t>
-  </si>
-  <si>
-    <t>B[c]</t>
-  </si>
-  <si>
-    <t>B[e]</t>
-  </si>
-  <si>
-    <t>C[c]</t>
-  </si>
-  <si>
-    <t>D[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-A[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-A[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-B[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-B[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-C[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-D[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>transfer_A</t>
-  </si>
-  <si>
-    <t>A[e] ==&gt; A[c]</t>
-  </si>
-  <si>
-    <t>transfer_B</t>
-  </si>
-  <si>
-    <t>B[e] ==&gt; B[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transfer_A-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_A * C[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>transfer_B-forward</t>
-  </si>
-  <si>
-    <t>k_cat_B * D[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_length</t>
-  </si>
-  <si>
-    <t>cellCycleLength</t>
-  </si>
-  <si>
-    <t>fraction_dry_weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>k_cat_A</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_B</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -563,10 +584,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -605,6 +626,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -613,105 +641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +667,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -743,6 +696,74 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +784,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,19 +910,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,109 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,37 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,65 +983,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,139 +1016,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,10 +1225,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1763,22 +1784,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -1795,13 +1816,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
@@ -1810,13 +1831,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
@@ -1838,12 +1859,12 @@
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1866,19 +1887,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -2908,42 +2929,42 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2982,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2982,19 +3003,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3045,13 +3066,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3095,34 +3116,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3139,17 +3160,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.575" style="1"/>
@@ -3168,16 +3189,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -4208,10 +4229,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4222,10 +4243,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4236,58 +4257,100 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4326,10 +4389,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -4380,28 +4443,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -4452,46 +4515,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4642,23 +4705,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1029" width="8.575" style="1"/>
-    <col min="1030" max="1031" width="8.575"/>
+    <col min="1" max="1028" width="8.575" style="1"/>
+    <col min="1029" max="1030" width="8.575"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:17">
+    <row r="1" ht="15.1" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4696,102 +4759,93 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>1e-15</v>
       </c>
       <c r="J2" s="1">
         <v>1e-16</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1e-10</v>
       </c>
       <c r="J3" s="1">
         <v>1e-11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q3">
+  <autoFilter ref="A1:P3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4833,19 +4887,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -5875,16 +5929,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -5893,21 +5947,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -5916,21 +5970,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -5939,21 +5993,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -5962,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6007,13 +6061,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -6030,86 +6084,86 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6155,19 +6209,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -6184,104 +6238,104 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6323,10 +6377,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -6354,22 +6408,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6377,10 +6433,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -6393,6 +6449,28 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="10"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -94,12 +94,12 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$38</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
   <si>
     <t>Id</t>
   </si>
@@ -426,6 +426,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -441,6 +444,9 @@
     <t>A[e] ==&gt; A[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>transfer_B</t>
   </si>
   <si>
@@ -463,9 +469,6 @@
   </si>
   <si>
     <t>k_cat_A * C[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>transfer_B-forward</t>
@@ -621,13 +624,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +641,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,43 +751,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -701,67 +758,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -784,7 +787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +835,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,43 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +919,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,62 +986,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,6 +1014,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1078,136 +1081,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,14 +1760,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1773,10 +1776,10 @@
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.575" style="1"/>
+    <col min="5" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+    <row r="1" ht="15.1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1802,50 +1805,59 @@
         <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38">
+  <autoFilter ref="A1:J38">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1859,7 +1871,7 @@
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1887,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>53</v>
@@ -2929,42 +2941,42 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3012,10 +3024,10 @@
         <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3072,7 +3084,7 @@
         <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3123,13 +3135,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>67</v>
@@ -3192,10 +3204,10 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>67</v>
@@ -4229,10 +4241,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4243,10 +4255,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4257,58 +4269,58 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4316,13 +4328,13 @@
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4330,31 +4342,31 @@
         <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7">
+  <autoFilter ref="A1:F10">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4443,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>67</v>
@@ -4452,19 +4464,19 @@
         <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -4515,46 +4527,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -6474,7 +6486,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,47 +5,48 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="12" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="15" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="16" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="17" r:id="rId17"/>
-    <sheet name="References" sheetId="18" r:id="rId18"/>
+    <sheet name="Environment" sheetId="19" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="15" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="17" r:id="rId18"/>
+    <sheet name="References" sheetId="18" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -58,91 +59,91 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$G$106</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$12</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$38</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$12</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$38</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -207,6 +208,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -333,9 +349,6 @@
     <t>C3H7NO2</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -538,9 +551,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -587,10 +597,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -632,21 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -661,9 +656,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,7 +693,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -684,21 +702,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +724,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,11 +745,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,31 +775,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,7 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +815,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,163 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,6 +1000,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1005,15 +1024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1025,32 +1035,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,149 +1056,175 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1233,6 +1243,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1760,9 +1773,87 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1787,31 +1878,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
@@ -1822,38 +1913,38 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -1899,25 +1990,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -2941,42 +3032,42 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2989,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -3015,25 +3106,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -3052,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -3078,19 +3169,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -3109,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -3135,22 +3226,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>16</v>
@@ -3169,7 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ10"/>
@@ -3201,22 +3292,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -4241,10 +4332,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4255,10 +4346,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4269,100 +4360,100 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -4401,16 +4492,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -4429,7 +4520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -4455,34 +4546,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
@@ -4501,7 +4592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -4527,46 +4618,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4647,6 +4738,84 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="7"/>
+    <col min="1020" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4673,13 +4842,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -4690,18 +4859,18 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -4741,40 +4910,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>16</v>
@@ -4785,28 +4954,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5">
         <v>1e-15</v>
@@ -4815,33 +4984,33 @@
         <v>1e-16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I3" s="5">
         <v>1e-10</v>
@@ -4850,10 +5019,10 @@
         <v>1e-11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +5035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ5"/>
@@ -4899,25 +5068,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>16</v>
@@ -5941,16 +6110,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -5959,21 +6128,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -5982,21 +6151,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -6005,21 +6174,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -6028,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6041,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -6073,19 +6242,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -6096,86 +6265,86 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -6221,25 +6390,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -6250,104 +6419,104 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6360,7 +6529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -6389,16 +6558,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -6415,82 +6584,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="A2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="14" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
@@ -42,8 +42,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -107,18 +107,18 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$38</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$5</definedName>
@@ -499,7 +499,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -597,9 +597,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -647,6 +647,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -655,8 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,16 +685,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -693,25 +708,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,7 +731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,21 +740,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,6 +754,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -776,9 +768,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -797,25 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +839,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,31 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,91 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,20 +991,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1017,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,150 +1088,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3205,12 +3205,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4740,7 +4740,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
   <si>
     <t>Id</t>
   </si>
@@ -223,6 +223,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -515,9 +521,6 @@
   </si>
   <si>
     <t>fraction_dry_weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>fractionDryWeight</t>
@@ -597,10 +600,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -647,9 +650,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,9 +702,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,14 +734,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,68 +763,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,11 +778,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -797,7 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +848,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,145 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +1009,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1017,39 +1029,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,6 +1050,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1083,140 +1086,140 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1798,16 +1801,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -1818,24 +1821,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1878,31 +1881,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
@@ -1913,38 +1916,38 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1990,25 +1993,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -3032,42 +3035,42 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3106,25 +3109,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -3169,19 +3172,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -3205,7 +3208,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3226,22 +3229,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>16</v>
@@ -3292,22 +3295,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -4332,10 +4335,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4346,10 +4349,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4360,100 +4363,100 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4492,16 +4495,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -4546,34 +4549,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
@@ -4618,46 +4621,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4738,15 +4741,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -4792,18 +4795,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4842,13 +4853,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -4859,18 +4870,18 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4910,40 +4921,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>16</v>
@@ -4954,28 +4965,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5">
         <v>1e-15</v>
@@ -4984,33 +4995,33 @@
         <v>1e-16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" s="5">
         <v>1e-10</v>
@@ -5019,10 +5030,10 @@
         <v>1e-11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5068,25 +5079,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>16</v>
@@ -6110,16 +6121,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -6128,21 +6139,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -6151,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
@@ -6159,13 +6170,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -6174,21 +6185,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -6197,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6242,19 +6253,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -6265,86 +6276,86 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6390,25 +6401,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -6419,104 +6430,104 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6558,16 +6569,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,18 @@
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
-    <sheet name="References" sheetId="18" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
+    <sheet name="References" sheetId="18" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$L$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$G$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
@@ -46,7 +47,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -59,24 +60,24 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$60</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$60</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$G$106</definedName>
@@ -131,19 +132,19 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -235,6 +236,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>metabolism_A</t>
   </si>
   <si>
@@ -553,10 +557,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -600,10 +619,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -637,29 +656,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,6 +672,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -681,17 +722,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,11 +745,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,54 +782,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,13 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,37 +885,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,43 +951,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,31 +981,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,6 +1010,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1009,15 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1029,30 +1048,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1078,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1091,143 +1101,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1236,6 +1255,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1671,7 +1693,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1776,24 +1798,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="A2:D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1801,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -1813,32 +1835,35 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1854,14 +1879,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1870,10 +1895,10 @@
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="1026" width="8.575" style="1"/>
+    <col min="5" max="1027" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:13">
+    <row r="1" ht="15.1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,25 +1906,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -1908,46 +1933,49 @@
         <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>104</v>
+      <c r="A2" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>107</v>
+      <c r="A3" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1963,14 +1991,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1982,10 +2010,10 @@
     <col min="5" max="5" width="8.575" style="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.575" style="1"/>
+    <col min="8" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:1024">
+    <row r="1" ht="15.1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1993,25 +2021,1339 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
+      <c r="AAA1"/>
+      <c r="AAB1"/>
+      <c r="AAC1"/>
+      <c r="AAD1"/>
+      <c r="AAE1"/>
+      <c r="AAF1"/>
+      <c r="AAG1"/>
+      <c r="AAH1"/>
+      <c r="AAI1"/>
+      <c r="AAJ1"/>
+      <c r="AAK1"/>
+      <c r="AAL1"/>
+      <c r="AAM1"/>
+      <c r="AAN1"/>
+      <c r="AAO1"/>
+      <c r="AAP1"/>
+      <c r="AAQ1"/>
+      <c r="AAR1"/>
+      <c r="AAS1"/>
+      <c r="AAT1"/>
+      <c r="AAU1"/>
+      <c r="AAV1"/>
+      <c r="AAW1"/>
+      <c r="AAX1"/>
+      <c r="AAY1"/>
+      <c r="AAZ1"/>
+      <c r="ABA1"/>
+      <c r="ABB1"/>
+      <c r="ABC1"/>
+      <c r="ABD1"/>
+      <c r="ABE1"/>
+      <c r="ABF1"/>
+      <c r="ABG1"/>
+      <c r="ABH1"/>
+      <c r="ABI1"/>
+      <c r="ABJ1"/>
+      <c r="ABK1"/>
+      <c r="ABL1"/>
+      <c r="ABM1"/>
+      <c r="ABN1"/>
+      <c r="ABO1"/>
+      <c r="ABP1"/>
+      <c r="ABQ1"/>
+      <c r="ABR1"/>
+      <c r="ABS1"/>
+      <c r="ABT1"/>
+      <c r="ABU1"/>
+      <c r="ABV1"/>
+      <c r="ABW1"/>
+      <c r="ABX1"/>
+      <c r="ABY1"/>
+      <c r="ABZ1"/>
+      <c r="ACA1"/>
+      <c r="ACB1"/>
+      <c r="ACC1"/>
+      <c r="ACD1"/>
+      <c r="ACE1"/>
+      <c r="ACF1"/>
+      <c r="ACG1"/>
+      <c r="ACH1"/>
+      <c r="ACI1"/>
+      <c r="ACJ1"/>
+      <c r="ACK1"/>
+      <c r="ACL1"/>
+      <c r="ACM1"/>
+      <c r="ACN1"/>
+      <c r="ACO1"/>
+      <c r="ACP1"/>
+      <c r="ACQ1"/>
+      <c r="ACR1"/>
+      <c r="ACS1"/>
+      <c r="ACT1"/>
+      <c r="ACU1"/>
+      <c r="ACV1"/>
+      <c r="ACW1"/>
+      <c r="ACX1"/>
+      <c r="ACY1"/>
+      <c r="ACZ1"/>
+      <c r="ADA1"/>
+      <c r="ADB1"/>
+      <c r="ADC1"/>
+      <c r="ADD1"/>
+      <c r="ADE1"/>
+      <c r="ADF1"/>
+      <c r="ADG1"/>
+      <c r="ADH1"/>
+      <c r="ADI1"/>
+      <c r="ADJ1"/>
+      <c r="ADK1"/>
+      <c r="ADL1"/>
+      <c r="ADM1"/>
+      <c r="ADN1"/>
+      <c r="ADO1"/>
+      <c r="ADP1"/>
+      <c r="ADQ1"/>
+      <c r="ADR1"/>
+      <c r="ADS1"/>
+      <c r="ADT1"/>
+      <c r="ADU1"/>
+      <c r="ADV1"/>
+      <c r="ADW1"/>
+      <c r="ADX1"/>
+      <c r="ADY1"/>
+      <c r="ADZ1"/>
+      <c r="AEA1"/>
+      <c r="AEB1"/>
+      <c r="AEC1"/>
+      <c r="AED1"/>
+      <c r="AEE1"/>
+      <c r="AEF1"/>
+      <c r="AEG1"/>
+      <c r="AEH1"/>
+      <c r="AEI1"/>
+      <c r="AEJ1"/>
+      <c r="AEK1"/>
+      <c r="AEL1"/>
+      <c r="AEM1"/>
+      <c r="AEN1"/>
+      <c r="AEO1"/>
+      <c r="AEP1"/>
+      <c r="AEQ1"/>
+      <c r="AER1"/>
+      <c r="AES1"/>
+      <c r="AET1"/>
+      <c r="AEU1"/>
+      <c r="AEV1"/>
+      <c r="AEW1"/>
+      <c r="AEX1"/>
+      <c r="AEY1"/>
+      <c r="AEZ1"/>
+      <c r="AFA1"/>
+      <c r="AFB1"/>
+      <c r="AFC1"/>
+      <c r="AFD1"/>
+      <c r="AFE1"/>
+      <c r="AFF1"/>
+      <c r="AFG1"/>
+      <c r="AFH1"/>
+      <c r="AFI1"/>
+      <c r="AFJ1"/>
+      <c r="AFK1"/>
+      <c r="AFL1"/>
+      <c r="AFM1"/>
+      <c r="AFN1"/>
+      <c r="AFO1"/>
+      <c r="AFP1"/>
+      <c r="AFQ1"/>
+      <c r="AFR1"/>
+      <c r="AFS1"/>
+      <c r="AFT1"/>
+      <c r="AFU1"/>
+      <c r="AFV1"/>
+      <c r="AFW1"/>
+      <c r="AFX1"/>
+      <c r="AFY1"/>
+      <c r="AFZ1"/>
+      <c r="AGA1"/>
+      <c r="AGB1"/>
+      <c r="AGC1"/>
+      <c r="AGD1"/>
+      <c r="AGE1"/>
+      <c r="AGF1"/>
+      <c r="AGG1"/>
+      <c r="AGH1"/>
+      <c r="AGI1"/>
+      <c r="AGJ1"/>
+      <c r="AGK1"/>
+      <c r="AGL1"/>
+      <c r="AGM1"/>
+      <c r="AGN1"/>
+      <c r="AGO1"/>
+      <c r="AGP1"/>
+      <c r="AGQ1"/>
+      <c r="AGR1"/>
+      <c r="AGS1"/>
+      <c r="AGT1"/>
+      <c r="AGU1"/>
+      <c r="AGV1"/>
+      <c r="AGW1"/>
+      <c r="AGX1"/>
+      <c r="AGY1"/>
+      <c r="AGZ1"/>
+      <c r="AHA1"/>
+      <c r="AHB1"/>
+      <c r="AHC1"/>
+      <c r="AHD1"/>
+      <c r="AHE1"/>
+      <c r="AHF1"/>
+      <c r="AHG1"/>
+      <c r="AHH1"/>
+      <c r="AHI1"/>
+      <c r="AHJ1"/>
+      <c r="AHK1"/>
+      <c r="AHL1"/>
+      <c r="AHM1"/>
+      <c r="AHN1"/>
+      <c r="AHO1"/>
+      <c r="AHP1"/>
+      <c r="AHQ1"/>
+      <c r="AHR1"/>
+      <c r="AHS1"/>
+      <c r="AHT1"/>
+      <c r="AHU1"/>
+      <c r="AHV1"/>
+      <c r="AHW1"/>
+      <c r="AHX1"/>
+      <c r="AHY1"/>
+      <c r="AHZ1"/>
+      <c r="AIA1"/>
+      <c r="AIB1"/>
+      <c r="AIC1"/>
+      <c r="AID1"/>
+      <c r="AIE1"/>
+      <c r="AIF1"/>
+      <c r="AIG1"/>
+      <c r="AIH1"/>
+      <c r="AII1"/>
+      <c r="AIJ1"/>
+      <c r="AIK1"/>
+      <c r="AIL1"/>
+      <c r="AIM1"/>
+      <c r="AIN1"/>
+      <c r="AIO1"/>
+      <c r="AIP1"/>
+      <c r="AIQ1"/>
+      <c r="AIR1"/>
+      <c r="AIS1"/>
+      <c r="AIT1"/>
+      <c r="AIU1"/>
+      <c r="AIV1"/>
+      <c r="AIW1"/>
+      <c r="AIX1"/>
+      <c r="AIY1"/>
+      <c r="AIZ1"/>
+      <c r="AJA1"/>
+      <c r="AJB1"/>
+      <c r="AJC1"/>
+      <c r="AJD1"/>
+      <c r="AJE1"/>
+      <c r="AJF1"/>
+      <c r="AJG1"/>
+      <c r="AJH1"/>
+      <c r="AJI1"/>
+      <c r="AJJ1"/>
+      <c r="AJK1"/>
+      <c r="AJL1"/>
+      <c r="AJM1"/>
+      <c r="AJN1"/>
+      <c r="AJO1"/>
+      <c r="AJP1"/>
+      <c r="AJQ1"/>
+      <c r="AJR1"/>
+      <c r="AJS1"/>
+      <c r="AJT1"/>
+      <c r="AJU1"/>
+      <c r="AJV1"/>
+      <c r="AJW1"/>
+      <c r="AJX1"/>
+      <c r="AJY1"/>
+      <c r="AJZ1"/>
+      <c r="AKA1"/>
+      <c r="AKB1"/>
+      <c r="AKC1"/>
+      <c r="AKD1"/>
+      <c r="AKE1"/>
+      <c r="AKF1"/>
+      <c r="AKG1"/>
+      <c r="AKH1"/>
+      <c r="AKI1"/>
+      <c r="AKJ1"/>
+      <c r="AKK1"/>
+      <c r="AKL1"/>
+      <c r="AKM1"/>
+      <c r="AKN1"/>
+      <c r="AKO1"/>
+      <c r="AKP1"/>
+      <c r="AKQ1"/>
+      <c r="AKR1"/>
+      <c r="AKS1"/>
+      <c r="AKT1"/>
+      <c r="AKU1"/>
+      <c r="AKV1"/>
+      <c r="AKW1"/>
+      <c r="AKX1"/>
+      <c r="AKY1"/>
+      <c r="AKZ1"/>
+      <c r="ALA1"/>
+      <c r="ALB1"/>
+      <c r="ALC1"/>
+      <c r="ALD1"/>
+      <c r="ALE1"/>
+      <c r="ALF1"/>
+      <c r="ALG1"/>
+      <c r="ALH1"/>
+      <c r="ALI1"/>
+      <c r="ALJ1"/>
+      <c r="ALK1"/>
+      <c r="ALL1"/>
+      <c r="ALM1"/>
+      <c r="ALN1"/>
+      <c r="ALO1"/>
+      <c r="ALP1"/>
+      <c r="ALQ1"/>
+      <c r="ALR1"/>
+      <c r="ALS1"/>
+      <c r="ALT1"/>
+      <c r="ALU1"/>
+      <c r="ALV1"/>
+      <c r="ALW1"/>
+      <c r="ALX1"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+      <c r="AMK1"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G38">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1028" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1026" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1026" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMK10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.575" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:1025">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -3032,49 +4374,136 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>111</v>
+      <c r="AMK1"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>115</v>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G38">
+  <autoFilter ref="A1:F10">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3083,56 +4512,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1026" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1027" width="9.10833333333333" style="1"/>
+    <col min="1" max="1025" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:22">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3146,55 +4665,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A6">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3203,17 +4822,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3221,40 +4840,64 @@
     <col min="1" max="1025" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
+  <autoFilter ref="A1:Q1">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3263,63 +4906,382 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ10"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="8"/>
+    <col min="1020" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:F10"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.575" style="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:1024">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1029" width="8.575" style="1"/>
+    <col min="1030" max="1031" width="8.575"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1e-15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1e-16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1e-10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1e-11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.575" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="1026" width="8.575" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:1025">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1"/>
-      <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -4332,1805 +6294,20 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>123</v>
+      <c r="AMK1"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.02214075862e+23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A6">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="7"/>
-    <col min="1020" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1028" width="8.575" style="1"/>
-    <col min="1029" max="1030" width="8.575"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1e-15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1e-16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1e-10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1e-11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:P3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AMJ5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.575" style="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.575" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:1024">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AO1"/>
-      <c r="AP1"/>
-      <c r="AQ1"/>
-      <c r="AR1"/>
-      <c r="AS1"/>
-      <c r="AT1"/>
-      <c r="AU1"/>
-      <c r="AV1"/>
-      <c r="AW1"/>
-      <c r="AX1"/>
-      <c r="AY1"/>
-      <c r="AZ1"/>
-      <c r="BA1"/>
-      <c r="BB1"/>
-      <c r="BC1"/>
-      <c r="BD1"/>
-      <c r="BE1"/>
-      <c r="BF1"/>
-      <c r="BG1"/>
-      <c r="BH1"/>
-      <c r="BI1"/>
-      <c r="BJ1"/>
-      <c r="BK1"/>
-      <c r="BL1"/>
-      <c r="BM1"/>
-      <c r="BN1"/>
-      <c r="BO1"/>
-      <c r="BP1"/>
-      <c r="BQ1"/>
-      <c r="BR1"/>
-      <c r="BS1"/>
-      <c r="BT1"/>
-      <c r="BU1"/>
-      <c r="BV1"/>
-      <c r="BW1"/>
-      <c r="BX1"/>
-      <c r="BY1"/>
-      <c r="BZ1"/>
-      <c r="CA1"/>
-      <c r="CB1"/>
-      <c r="CC1"/>
-      <c r="CD1"/>
-      <c r="CE1"/>
-      <c r="CF1"/>
-      <c r="CG1"/>
-      <c r="CH1"/>
-      <c r="CI1"/>
-      <c r="CJ1"/>
-      <c r="CK1"/>
-      <c r="CL1"/>
-      <c r="CM1"/>
-      <c r="CN1"/>
-      <c r="CO1"/>
-      <c r="CP1"/>
-      <c r="CQ1"/>
-      <c r="CR1"/>
-      <c r="CS1"/>
-      <c r="CT1"/>
-      <c r="CU1"/>
-      <c r="CV1"/>
-      <c r="CW1"/>
-      <c r="CX1"/>
-      <c r="CY1"/>
-      <c r="CZ1"/>
-      <c r="DA1"/>
-      <c r="DB1"/>
-      <c r="DC1"/>
-      <c r="DD1"/>
-      <c r="DE1"/>
-      <c r="DF1"/>
-      <c r="DG1"/>
-      <c r="DH1"/>
-      <c r="DI1"/>
-      <c r="DJ1"/>
-      <c r="DK1"/>
-      <c r="DL1"/>
-      <c r="DM1"/>
-      <c r="DN1"/>
-      <c r="DO1"/>
-      <c r="DP1"/>
-      <c r="DQ1"/>
-      <c r="DR1"/>
-      <c r="DS1"/>
-      <c r="DT1"/>
-      <c r="DU1"/>
-      <c r="DV1"/>
-      <c r="DW1"/>
-      <c r="DX1"/>
-      <c r="DY1"/>
-      <c r="DZ1"/>
-      <c r="EA1"/>
-      <c r="EB1"/>
-      <c r="EC1"/>
-      <c r="ED1"/>
-      <c r="EE1"/>
-      <c r="EF1"/>
-      <c r="EG1"/>
-      <c r="EH1"/>
-      <c r="EI1"/>
-      <c r="EJ1"/>
-      <c r="EK1"/>
-      <c r="EL1"/>
-      <c r="EM1"/>
-      <c r="EN1"/>
-      <c r="EO1"/>
-      <c r="EP1"/>
-      <c r="EQ1"/>
-      <c r="ER1"/>
-      <c r="ES1"/>
-      <c r="ET1"/>
-      <c r="EU1"/>
-      <c r="EV1"/>
-      <c r="EW1"/>
-      <c r="EX1"/>
-      <c r="EY1"/>
-      <c r="EZ1"/>
-      <c r="FA1"/>
-      <c r="FB1"/>
-      <c r="FC1"/>
-      <c r="FD1"/>
-      <c r="FE1"/>
-      <c r="FF1"/>
-      <c r="FG1"/>
-      <c r="FH1"/>
-      <c r="FI1"/>
-      <c r="FJ1"/>
-      <c r="FK1"/>
-      <c r="FL1"/>
-      <c r="FM1"/>
-      <c r="FN1"/>
-      <c r="FO1"/>
-      <c r="FP1"/>
-      <c r="FQ1"/>
-      <c r="FR1"/>
-      <c r="FS1"/>
-      <c r="FT1"/>
-      <c r="FU1"/>
-      <c r="FV1"/>
-      <c r="FW1"/>
-      <c r="FX1"/>
-      <c r="FY1"/>
-      <c r="FZ1"/>
-      <c r="GA1"/>
-      <c r="GB1"/>
-      <c r="GC1"/>
-      <c r="GD1"/>
-      <c r="GE1"/>
-      <c r="GF1"/>
-      <c r="GG1"/>
-      <c r="GH1"/>
-      <c r="GI1"/>
-      <c r="GJ1"/>
-      <c r="GK1"/>
-      <c r="GL1"/>
-      <c r="GM1"/>
-      <c r="GN1"/>
-      <c r="GO1"/>
-      <c r="GP1"/>
-      <c r="GQ1"/>
-      <c r="GR1"/>
-      <c r="GS1"/>
-      <c r="GT1"/>
-      <c r="GU1"/>
-      <c r="GV1"/>
-      <c r="GW1"/>
-      <c r="GX1"/>
-      <c r="GY1"/>
-      <c r="GZ1"/>
-      <c r="HA1"/>
-      <c r="HB1"/>
-      <c r="HC1"/>
-      <c r="HD1"/>
-      <c r="HE1"/>
-      <c r="HF1"/>
-      <c r="HG1"/>
-      <c r="HH1"/>
-      <c r="HI1"/>
-      <c r="HJ1"/>
-      <c r="HK1"/>
-      <c r="HL1"/>
-      <c r="HM1"/>
-      <c r="HN1"/>
-      <c r="HO1"/>
-      <c r="HP1"/>
-      <c r="HQ1"/>
-      <c r="HR1"/>
-      <c r="HS1"/>
-      <c r="HT1"/>
-      <c r="HU1"/>
-      <c r="HV1"/>
-      <c r="HW1"/>
-      <c r="HX1"/>
-      <c r="HY1"/>
-      <c r="HZ1"/>
-      <c r="IA1"/>
-      <c r="IB1"/>
-      <c r="IC1"/>
-      <c r="ID1"/>
-      <c r="IE1"/>
-      <c r="IF1"/>
-      <c r="IG1"/>
-      <c r="IH1"/>
-      <c r="II1"/>
-      <c r="IJ1"/>
-      <c r="IK1"/>
-      <c r="IL1"/>
-      <c r="IM1"/>
-      <c r="IN1"/>
-      <c r="IO1"/>
-      <c r="IP1"/>
-      <c r="IQ1"/>
-      <c r="IR1"/>
-      <c r="IS1"/>
-      <c r="IT1"/>
-      <c r="IU1"/>
-      <c r="IV1"/>
-      <c r="IW1"/>
-      <c r="IX1"/>
-      <c r="IY1"/>
-      <c r="IZ1"/>
-      <c r="JA1"/>
-      <c r="JB1"/>
-      <c r="JC1"/>
-      <c r="JD1"/>
-      <c r="JE1"/>
-      <c r="JF1"/>
-      <c r="JG1"/>
-      <c r="JH1"/>
-      <c r="JI1"/>
-      <c r="JJ1"/>
-      <c r="JK1"/>
-      <c r="JL1"/>
-      <c r="JM1"/>
-      <c r="JN1"/>
-      <c r="JO1"/>
-      <c r="JP1"/>
-      <c r="JQ1"/>
-      <c r="JR1"/>
-      <c r="JS1"/>
-      <c r="JT1"/>
-      <c r="JU1"/>
-      <c r="JV1"/>
-      <c r="JW1"/>
-      <c r="JX1"/>
-      <c r="JY1"/>
-      <c r="JZ1"/>
-      <c r="KA1"/>
-      <c r="KB1"/>
-      <c r="KC1"/>
-      <c r="KD1"/>
-      <c r="KE1"/>
-      <c r="KF1"/>
-      <c r="KG1"/>
-      <c r="KH1"/>
-      <c r="KI1"/>
-      <c r="KJ1"/>
-      <c r="KK1"/>
-      <c r="KL1"/>
-      <c r="KM1"/>
-      <c r="KN1"/>
-      <c r="KO1"/>
-      <c r="KP1"/>
-      <c r="KQ1"/>
-      <c r="KR1"/>
-      <c r="KS1"/>
-      <c r="KT1"/>
-      <c r="KU1"/>
-      <c r="KV1"/>
-      <c r="KW1"/>
-      <c r="KX1"/>
-      <c r="KY1"/>
-      <c r="KZ1"/>
-      <c r="LA1"/>
-      <c r="LB1"/>
-      <c r="LC1"/>
-      <c r="LD1"/>
-      <c r="LE1"/>
-      <c r="LF1"/>
-      <c r="LG1"/>
-      <c r="LH1"/>
-      <c r="LI1"/>
-      <c r="LJ1"/>
-      <c r="LK1"/>
-      <c r="LL1"/>
-      <c r="LM1"/>
-      <c r="LN1"/>
-      <c r="LO1"/>
-      <c r="LP1"/>
-      <c r="LQ1"/>
-      <c r="LR1"/>
-      <c r="LS1"/>
-      <c r="LT1"/>
-      <c r="LU1"/>
-      <c r="LV1"/>
-      <c r="LW1"/>
-      <c r="LX1"/>
-      <c r="LY1"/>
-      <c r="LZ1"/>
-      <c r="MA1"/>
-      <c r="MB1"/>
-      <c r="MC1"/>
-      <c r="MD1"/>
-      <c r="ME1"/>
-      <c r="MF1"/>
-      <c r="MG1"/>
-      <c r="MH1"/>
-      <c r="MI1"/>
-      <c r="MJ1"/>
-      <c r="MK1"/>
-      <c r="ML1"/>
-      <c r="MM1"/>
-      <c r="MN1"/>
-      <c r="MO1"/>
-      <c r="MP1"/>
-      <c r="MQ1"/>
-      <c r="MR1"/>
-      <c r="MS1"/>
-      <c r="MT1"/>
-      <c r="MU1"/>
-      <c r="MV1"/>
-      <c r="MW1"/>
-      <c r="MX1"/>
-      <c r="MY1"/>
-      <c r="MZ1"/>
-      <c r="NA1"/>
-      <c r="NB1"/>
-      <c r="NC1"/>
-      <c r="ND1"/>
-      <c r="NE1"/>
-      <c r="NF1"/>
-      <c r="NG1"/>
-      <c r="NH1"/>
-      <c r="NI1"/>
-      <c r="NJ1"/>
-      <c r="NK1"/>
-      <c r="NL1"/>
-      <c r="NM1"/>
-      <c r="NN1"/>
-      <c r="NO1"/>
-      <c r="NP1"/>
-      <c r="NQ1"/>
-      <c r="NR1"/>
-      <c r="NS1"/>
-      <c r="NT1"/>
-      <c r="NU1"/>
-      <c r="NV1"/>
-      <c r="NW1"/>
-      <c r="NX1"/>
-      <c r="NY1"/>
-      <c r="NZ1"/>
-      <c r="OA1"/>
-      <c r="OB1"/>
-      <c r="OC1"/>
-      <c r="OD1"/>
-      <c r="OE1"/>
-      <c r="OF1"/>
-      <c r="OG1"/>
-      <c r="OH1"/>
-      <c r="OI1"/>
-      <c r="OJ1"/>
-      <c r="OK1"/>
-      <c r="OL1"/>
-      <c r="OM1"/>
-      <c r="ON1"/>
-      <c r="OO1"/>
-      <c r="OP1"/>
-      <c r="OQ1"/>
-      <c r="OR1"/>
-      <c r="OS1"/>
-      <c r="OT1"/>
-      <c r="OU1"/>
-      <c r="OV1"/>
-      <c r="OW1"/>
-      <c r="OX1"/>
-      <c r="OY1"/>
-      <c r="OZ1"/>
-      <c r="PA1"/>
-      <c r="PB1"/>
-      <c r="PC1"/>
-      <c r="PD1"/>
-      <c r="PE1"/>
-      <c r="PF1"/>
-      <c r="PG1"/>
-      <c r="PH1"/>
-      <c r="PI1"/>
-      <c r="PJ1"/>
-      <c r="PK1"/>
-      <c r="PL1"/>
-      <c r="PM1"/>
-      <c r="PN1"/>
-      <c r="PO1"/>
-      <c r="PP1"/>
-      <c r="PQ1"/>
-      <c r="PR1"/>
-      <c r="PS1"/>
-      <c r="PT1"/>
-      <c r="PU1"/>
-      <c r="PV1"/>
-      <c r="PW1"/>
-      <c r="PX1"/>
-      <c r="PY1"/>
-      <c r="PZ1"/>
-      <c r="QA1"/>
-      <c r="QB1"/>
-      <c r="QC1"/>
-      <c r="QD1"/>
-      <c r="QE1"/>
-      <c r="QF1"/>
-      <c r="QG1"/>
-      <c r="QH1"/>
-      <c r="QI1"/>
-      <c r="QJ1"/>
-      <c r="QK1"/>
-      <c r="QL1"/>
-      <c r="QM1"/>
-      <c r="QN1"/>
-      <c r="QO1"/>
-      <c r="QP1"/>
-      <c r="QQ1"/>
-      <c r="QR1"/>
-      <c r="QS1"/>
-      <c r="QT1"/>
-      <c r="QU1"/>
-      <c r="QV1"/>
-      <c r="QW1"/>
-      <c r="QX1"/>
-      <c r="QY1"/>
-      <c r="QZ1"/>
-      <c r="RA1"/>
-      <c r="RB1"/>
-      <c r="RC1"/>
-      <c r="RD1"/>
-      <c r="RE1"/>
-      <c r="RF1"/>
-      <c r="RG1"/>
-      <c r="RH1"/>
-      <c r="RI1"/>
-      <c r="RJ1"/>
-      <c r="RK1"/>
-      <c r="RL1"/>
-      <c r="RM1"/>
-      <c r="RN1"/>
-      <c r="RO1"/>
-      <c r="RP1"/>
-      <c r="RQ1"/>
-      <c r="RR1"/>
-      <c r="RS1"/>
-      <c r="RT1"/>
-      <c r="RU1"/>
-      <c r="RV1"/>
-      <c r="RW1"/>
-      <c r="RX1"/>
-      <c r="RY1"/>
-      <c r="RZ1"/>
-      <c r="SA1"/>
-      <c r="SB1"/>
-      <c r="SC1"/>
-      <c r="SD1"/>
-      <c r="SE1"/>
-      <c r="SF1"/>
-      <c r="SG1"/>
-      <c r="SH1"/>
-      <c r="SI1"/>
-      <c r="SJ1"/>
-      <c r="SK1"/>
-      <c r="SL1"/>
-      <c r="SM1"/>
-      <c r="SN1"/>
-      <c r="SO1"/>
-      <c r="SP1"/>
-      <c r="SQ1"/>
-      <c r="SR1"/>
-      <c r="SS1"/>
-      <c r="ST1"/>
-      <c r="SU1"/>
-      <c r="SV1"/>
-      <c r="SW1"/>
-      <c r="SX1"/>
-      <c r="SY1"/>
-      <c r="SZ1"/>
-      <c r="TA1"/>
-      <c r="TB1"/>
-      <c r="TC1"/>
-      <c r="TD1"/>
-      <c r="TE1"/>
-      <c r="TF1"/>
-      <c r="TG1"/>
-      <c r="TH1"/>
-      <c r="TI1"/>
-      <c r="TJ1"/>
-      <c r="TK1"/>
-      <c r="TL1"/>
-      <c r="TM1"/>
-      <c r="TN1"/>
-      <c r="TO1"/>
-      <c r="TP1"/>
-      <c r="TQ1"/>
-      <c r="TR1"/>
-      <c r="TS1"/>
-      <c r="TT1"/>
-      <c r="TU1"/>
-      <c r="TV1"/>
-      <c r="TW1"/>
-      <c r="TX1"/>
-      <c r="TY1"/>
-      <c r="TZ1"/>
-      <c r="UA1"/>
-      <c r="UB1"/>
-      <c r="UC1"/>
-      <c r="UD1"/>
-      <c r="UE1"/>
-      <c r="UF1"/>
-      <c r="UG1"/>
-      <c r="UH1"/>
-      <c r="UI1"/>
-      <c r="UJ1"/>
-      <c r="UK1"/>
-      <c r="UL1"/>
-      <c r="UM1"/>
-      <c r="UN1"/>
-      <c r="UO1"/>
-      <c r="UP1"/>
-      <c r="UQ1"/>
-      <c r="UR1"/>
-      <c r="US1"/>
-      <c r="UT1"/>
-      <c r="UU1"/>
-      <c r="UV1"/>
-      <c r="UW1"/>
-      <c r="UX1"/>
-      <c r="UY1"/>
-      <c r="UZ1"/>
-      <c r="VA1"/>
-      <c r="VB1"/>
-      <c r="VC1"/>
-      <c r="VD1"/>
-      <c r="VE1"/>
-      <c r="VF1"/>
-      <c r="VG1"/>
-      <c r="VH1"/>
-      <c r="VI1"/>
-      <c r="VJ1"/>
-      <c r="VK1"/>
-      <c r="VL1"/>
-      <c r="VM1"/>
-      <c r="VN1"/>
-      <c r="VO1"/>
-      <c r="VP1"/>
-      <c r="VQ1"/>
-      <c r="VR1"/>
-      <c r="VS1"/>
-      <c r="VT1"/>
-      <c r="VU1"/>
-      <c r="VV1"/>
-      <c r="VW1"/>
-      <c r="VX1"/>
-      <c r="VY1"/>
-      <c r="VZ1"/>
-      <c r="WA1"/>
-      <c r="WB1"/>
-      <c r="WC1"/>
-      <c r="WD1"/>
-      <c r="WE1"/>
-      <c r="WF1"/>
-      <c r="WG1"/>
-      <c r="WH1"/>
-      <c r="WI1"/>
-      <c r="WJ1"/>
-      <c r="WK1"/>
-      <c r="WL1"/>
-      <c r="WM1"/>
-      <c r="WN1"/>
-      <c r="WO1"/>
-      <c r="WP1"/>
-      <c r="WQ1"/>
-      <c r="WR1"/>
-      <c r="WS1"/>
-      <c r="WT1"/>
-      <c r="WU1"/>
-      <c r="WV1"/>
-      <c r="WW1"/>
-      <c r="WX1"/>
-      <c r="WY1"/>
-      <c r="WZ1"/>
-      <c r="XA1"/>
-      <c r="XB1"/>
-      <c r="XC1"/>
-      <c r="XD1"/>
-      <c r="XE1"/>
-      <c r="XF1"/>
-      <c r="XG1"/>
-      <c r="XH1"/>
-      <c r="XI1"/>
-      <c r="XJ1"/>
-      <c r="XK1"/>
-      <c r="XL1"/>
-      <c r="XM1"/>
-      <c r="XN1"/>
-      <c r="XO1"/>
-      <c r="XP1"/>
-      <c r="XQ1"/>
-      <c r="XR1"/>
-      <c r="XS1"/>
-      <c r="XT1"/>
-      <c r="XU1"/>
-      <c r="XV1"/>
-      <c r="XW1"/>
-      <c r="XX1"/>
-      <c r="XY1"/>
-      <c r="XZ1"/>
-      <c r="YA1"/>
-      <c r="YB1"/>
-      <c r="YC1"/>
-      <c r="YD1"/>
-      <c r="YE1"/>
-      <c r="YF1"/>
-      <c r="YG1"/>
-      <c r="YH1"/>
-      <c r="YI1"/>
-      <c r="YJ1"/>
-      <c r="YK1"/>
-      <c r="YL1"/>
-      <c r="YM1"/>
-      <c r="YN1"/>
-      <c r="YO1"/>
-      <c r="YP1"/>
-      <c r="YQ1"/>
-      <c r="YR1"/>
-      <c r="YS1"/>
-      <c r="YT1"/>
-      <c r="YU1"/>
-      <c r="YV1"/>
-      <c r="YW1"/>
-      <c r="YX1"/>
-      <c r="YY1"/>
-      <c r="YZ1"/>
-      <c r="ZA1"/>
-      <c r="ZB1"/>
-      <c r="ZC1"/>
-      <c r="ZD1"/>
-      <c r="ZE1"/>
-      <c r="ZF1"/>
-      <c r="ZG1"/>
-      <c r="ZH1"/>
-      <c r="ZI1"/>
-      <c r="ZJ1"/>
-      <c r="ZK1"/>
-      <c r="ZL1"/>
-      <c r="ZM1"/>
-      <c r="ZN1"/>
-      <c r="ZO1"/>
-      <c r="ZP1"/>
-      <c r="ZQ1"/>
-      <c r="ZR1"/>
-      <c r="ZS1"/>
-      <c r="ZT1"/>
-      <c r="ZU1"/>
-      <c r="ZV1"/>
-      <c r="ZW1"/>
-      <c r="ZX1"/>
-      <c r="ZY1"/>
-      <c r="ZZ1"/>
-      <c r="AAA1"/>
-      <c r="AAB1"/>
-      <c r="AAC1"/>
-      <c r="AAD1"/>
-      <c r="AAE1"/>
-      <c r="AAF1"/>
-      <c r="AAG1"/>
-      <c r="AAH1"/>
-      <c r="AAI1"/>
-      <c r="AAJ1"/>
-      <c r="AAK1"/>
-      <c r="AAL1"/>
-      <c r="AAM1"/>
-      <c r="AAN1"/>
-      <c r="AAO1"/>
-      <c r="AAP1"/>
-      <c r="AAQ1"/>
-      <c r="AAR1"/>
-      <c r="AAS1"/>
-      <c r="AAT1"/>
-      <c r="AAU1"/>
-      <c r="AAV1"/>
-      <c r="AAW1"/>
-      <c r="AAX1"/>
-      <c r="AAY1"/>
-      <c r="AAZ1"/>
-      <c r="ABA1"/>
-      <c r="ABB1"/>
-      <c r="ABC1"/>
-      <c r="ABD1"/>
-      <c r="ABE1"/>
-      <c r="ABF1"/>
-      <c r="ABG1"/>
-      <c r="ABH1"/>
-      <c r="ABI1"/>
-      <c r="ABJ1"/>
-      <c r="ABK1"/>
-      <c r="ABL1"/>
-      <c r="ABM1"/>
-      <c r="ABN1"/>
-      <c r="ABO1"/>
-      <c r="ABP1"/>
-      <c r="ABQ1"/>
-      <c r="ABR1"/>
-      <c r="ABS1"/>
-      <c r="ABT1"/>
-      <c r="ABU1"/>
-      <c r="ABV1"/>
-      <c r="ABW1"/>
-      <c r="ABX1"/>
-      <c r="ABY1"/>
-      <c r="ABZ1"/>
-      <c r="ACA1"/>
-      <c r="ACB1"/>
-      <c r="ACC1"/>
-      <c r="ACD1"/>
-      <c r="ACE1"/>
-      <c r="ACF1"/>
-      <c r="ACG1"/>
-      <c r="ACH1"/>
-      <c r="ACI1"/>
-      <c r="ACJ1"/>
-      <c r="ACK1"/>
-      <c r="ACL1"/>
-      <c r="ACM1"/>
-      <c r="ACN1"/>
-      <c r="ACO1"/>
-      <c r="ACP1"/>
-      <c r="ACQ1"/>
-      <c r="ACR1"/>
-      <c r="ACS1"/>
-      <c r="ACT1"/>
-      <c r="ACU1"/>
-      <c r="ACV1"/>
-      <c r="ACW1"/>
-      <c r="ACX1"/>
-      <c r="ACY1"/>
-      <c r="ACZ1"/>
-      <c r="ADA1"/>
-      <c r="ADB1"/>
-      <c r="ADC1"/>
-      <c r="ADD1"/>
-      <c r="ADE1"/>
-      <c r="ADF1"/>
-      <c r="ADG1"/>
-      <c r="ADH1"/>
-      <c r="ADI1"/>
-      <c r="ADJ1"/>
-      <c r="ADK1"/>
-      <c r="ADL1"/>
-      <c r="ADM1"/>
-      <c r="ADN1"/>
-      <c r="ADO1"/>
-      <c r="ADP1"/>
-      <c r="ADQ1"/>
-      <c r="ADR1"/>
-      <c r="ADS1"/>
-      <c r="ADT1"/>
-      <c r="ADU1"/>
-      <c r="ADV1"/>
-      <c r="ADW1"/>
-      <c r="ADX1"/>
-      <c r="ADY1"/>
-      <c r="ADZ1"/>
-      <c r="AEA1"/>
-      <c r="AEB1"/>
-      <c r="AEC1"/>
-      <c r="AED1"/>
-      <c r="AEE1"/>
-      <c r="AEF1"/>
-      <c r="AEG1"/>
-      <c r="AEH1"/>
-      <c r="AEI1"/>
-      <c r="AEJ1"/>
-      <c r="AEK1"/>
-      <c r="AEL1"/>
-      <c r="AEM1"/>
-      <c r="AEN1"/>
-      <c r="AEO1"/>
-      <c r="AEP1"/>
-      <c r="AEQ1"/>
-      <c r="AER1"/>
-      <c r="AES1"/>
-      <c r="AET1"/>
-      <c r="AEU1"/>
-      <c r="AEV1"/>
-      <c r="AEW1"/>
-      <c r="AEX1"/>
-      <c r="AEY1"/>
-      <c r="AEZ1"/>
-      <c r="AFA1"/>
-      <c r="AFB1"/>
-      <c r="AFC1"/>
-      <c r="AFD1"/>
-      <c r="AFE1"/>
-      <c r="AFF1"/>
-      <c r="AFG1"/>
-      <c r="AFH1"/>
-      <c r="AFI1"/>
-      <c r="AFJ1"/>
-      <c r="AFK1"/>
-      <c r="AFL1"/>
-      <c r="AFM1"/>
-      <c r="AFN1"/>
-      <c r="AFO1"/>
-      <c r="AFP1"/>
-      <c r="AFQ1"/>
-      <c r="AFR1"/>
-      <c r="AFS1"/>
-      <c r="AFT1"/>
-      <c r="AFU1"/>
-      <c r="AFV1"/>
-      <c r="AFW1"/>
-      <c r="AFX1"/>
-      <c r="AFY1"/>
-      <c r="AFZ1"/>
-      <c r="AGA1"/>
-      <c r="AGB1"/>
-      <c r="AGC1"/>
-      <c r="AGD1"/>
-      <c r="AGE1"/>
-      <c r="AGF1"/>
-      <c r="AGG1"/>
-      <c r="AGH1"/>
-      <c r="AGI1"/>
-      <c r="AGJ1"/>
-      <c r="AGK1"/>
-      <c r="AGL1"/>
-      <c r="AGM1"/>
-      <c r="AGN1"/>
-      <c r="AGO1"/>
-      <c r="AGP1"/>
-      <c r="AGQ1"/>
-      <c r="AGR1"/>
-      <c r="AGS1"/>
-      <c r="AGT1"/>
-      <c r="AGU1"/>
-      <c r="AGV1"/>
-      <c r="AGW1"/>
-      <c r="AGX1"/>
-      <c r="AGY1"/>
-      <c r="AGZ1"/>
-      <c r="AHA1"/>
-      <c r="AHB1"/>
-      <c r="AHC1"/>
-      <c r="AHD1"/>
-      <c r="AHE1"/>
-      <c r="AHF1"/>
-      <c r="AHG1"/>
-      <c r="AHH1"/>
-      <c r="AHI1"/>
-      <c r="AHJ1"/>
-      <c r="AHK1"/>
-      <c r="AHL1"/>
-      <c r="AHM1"/>
-      <c r="AHN1"/>
-      <c r="AHO1"/>
-      <c r="AHP1"/>
-      <c r="AHQ1"/>
-      <c r="AHR1"/>
-      <c r="AHS1"/>
-      <c r="AHT1"/>
-      <c r="AHU1"/>
-      <c r="AHV1"/>
-      <c r="AHW1"/>
-      <c r="AHX1"/>
-      <c r="AHY1"/>
-      <c r="AHZ1"/>
-      <c r="AIA1"/>
-      <c r="AIB1"/>
-      <c r="AIC1"/>
-      <c r="AID1"/>
-      <c r="AIE1"/>
-      <c r="AIF1"/>
-      <c r="AIG1"/>
-      <c r="AIH1"/>
-      <c r="AII1"/>
-      <c r="AIJ1"/>
-      <c r="AIK1"/>
-      <c r="AIL1"/>
-      <c r="AIM1"/>
-      <c r="AIN1"/>
-      <c r="AIO1"/>
-      <c r="AIP1"/>
-      <c r="AIQ1"/>
-      <c r="AIR1"/>
-      <c r="AIS1"/>
-      <c r="AIT1"/>
-      <c r="AIU1"/>
-      <c r="AIV1"/>
-      <c r="AIW1"/>
-      <c r="AIX1"/>
-      <c r="AIY1"/>
-      <c r="AIZ1"/>
-      <c r="AJA1"/>
-      <c r="AJB1"/>
-      <c r="AJC1"/>
-      <c r="AJD1"/>
-      <c r="AJE1"/>
-      <c r="AJF1"/>
-      <c r="AJG1"/>
-      <c r="AJH1"/>
-      <c r="AJI1"/>
-      <c r="AJJ1"/>
-      <c r="AJK1"/>
-      <c r="AJL1"/>
-      <c r="AJM1"/>
-      <c r="AJN1"/>
-      <c r="AJO1"/>
-      <c r="AJP1"/>
-      <c r="AJQ1"/>
-      <c r="AJR1"/>
-      <c r="AJS1"/>
-      <c r="AJT1"/>
-      <c r="AJU1"/>
-      <c r="AJV1"/>
-      <c r="AJW1"/>
-      <c r="AJX1"/>
-      <c r="AJY1"/>
-      <c r="AJZ1"/>
-      <c r="AKA1"/>
-      <c r="AKB1"/>
-      <c r="AKC1"/>
-      <c r="AKD1"/>
-      <c r="AKE1"/>
-      <c r="AKF1"/>
-      <c r="AKG1"/>
-      <c r="AKH1"/>
-      <c r="AKI1"/>
-      <c r="AKJ1"/>
-      <c r="AKK1"/>
-      <c r="AKL1"/>
-      <c r="AKM1"/>
-      <c r="AKN1"/>
-      <c r="AKO1"/>
-      <c r="AKP1"/>
-      <c r="AKQ1"/>
-      <c r="AKR1"/>
-      <c r="AKS1"/>
-      <c r="AKT1"/>
-      <c r="AKU1"/>
-      <c r="AKV1"/>
-      <c r="AKW1"/>
-      <c r="AKX1"/>
-      <c r="AKY1"/>
-      <c r="AKZ1"/>
-      <c r="ALA1"/>
-      <c r="ALB1"/>
-      <c r="ALC1"/>
-      <c r="ALD1"/>
-      <c r="ALE1"/>
-      <c r="ALF1"/>
-      <c r="ALG1"/>
-      <c r="ALH1"/>
-      <c r="ALI1"/>
-      <c r="ALJ1"/>
-      <c r="ALK1"/>
-      <c r="ALL1"/>
-      <c r="ALM1"/>
-      <c r="ALN1"/>
-      <c r="ALO1"/>
-      <c r="ALP1"/>
-      <c r="ALQ1"/>
-      <c r="ALR1"/>
-      <c r="ALS1"/>
-      <c r="ALT1"/>
-      <c r="ALU1"/>
-      <c r="ALV1"/>
-      <c r="ALW1"/>
-      <c r="ALX1"/>
-      <c r="ALY1"/>
-      <c r="ALZ1"/>
-      <c r="AMA1"/>
-      <c r="AMB1"/>
-      <c r="AMC1"/>
-      <c r="AMD1"/>
-      <c r="AME1"/>
-      <c r="AMF1"/>
-      <c r="AMG1"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -6139,21 +6316,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>66</v>
+      <c r="A3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -6162,21 +6339,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -6185,21 +6362,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -6208,11 +6385,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K60">
+  <autoFilter ref="A1:L60">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6224,14 +6401,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6242,10 +6419,10 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.0666666666667" style="1"/>
-    <col min="7" max="1025" width="9.10833333333333" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6253,13 +6430,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -6268,94 +6445,97 @@
         <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6371,14 +6551,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6390,10 +6570,12 @@
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.575" style="1"/>
     <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.575" style="1"/>
+    <col min="8" max="8" width="8.575" style="1"/>
+    <col min="9" max="10" width="8.75" style="1" customWidth="1"/>
+    <col min="11" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6401,19 +6583,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -6422,112 +6604,115 @@
         <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6543,25 +6728,25 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.1083333333333" style="1"/>
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="17.4583333333333" style="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6569,10 +6754,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -6580,10 +6765,13 @@
       <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -230,7 +230,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -242,7 +242,7 @@
     <t>metabolism_A</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>metabolism_B</t>
@@ -284,13 +284,13 @@
     <t>Cytosol</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -299,7 +299,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -311,7 +311,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_A * C[c]</t>
@@ -619,10 +616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -656,6 +653,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -663,25 +665,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,29 +687,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,29 +711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,8 +725,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,20 +796,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +846,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,31 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,115 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,15 +1007,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1038,6 +1026,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1052,28 +1055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,9 +1081,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,143 +1098,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1267,6 +1264,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1998,7 +1998,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3074,11 +3074,9 @@
       <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>107</v>
@@ -3086,7 +3084,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>108</v>
@@ -3094,11 +3092,9 @@
       <c r="D3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>107</v>
@@ -3149,10 +3145,10 @@
         <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3212,7 +3208,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3266,13 +3262,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>74</v>
@@ -3313,7 +3309,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3338,10 +3334,10 @@
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>74</v>
@@ -4378,10 +4374,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4392,10 +4385,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4406,10 +4396,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -4420,10 +4407,7 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
@@ -4434,72 +4418,63 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4517,7 +4492,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4595,10 +4570,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>74</v>
@@ -4607,10 +4582,10 @@
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>22</v>
@@ -4625,22 +4600,22 @@
         <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -4694,10 +4669,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>74</v>
@@ -4706,7 +4681,7 @@
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -4827,7 +4802,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4848,46 +4823,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4922,8 +4897,8 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="8"/>
-    <col min="1020" max="16384" width="9" style="8"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="9"/>
+    <col min="1020" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -5002,7 +4977,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -5020,7 +4995,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5075,7 +5050,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5230,7 +5205,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -6558,7 +6533,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6620,7 +6595,7 @@
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1">
@@ -6637,7 +6612,7 @@
       <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="1">
@@ -6654,7 +6629,7 @@
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="1">
@@ -6671,7 +6646,7 @@
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="1">
@@ -6688,7 +6663,7 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="6">
@@ -6705,7 +6680,7 @@
       <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="1">

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -218,145 +218,148 @@
     <t>Temperature units</t>
   </si>
   <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>metabolism_A</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>metabolism_B</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>adenosine- 5’-diphosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
+  </si>
+  <si>
+    <t>C10H15N5O10P2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>metabolism_A</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>metabolism_B</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>adenosine- 5’-diphosphate</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
-  </si>
-  <si>
-    <t>C10H15N5O10P2</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>alanine</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t>C3H7NO2</t>
   </si>
   <si>
     <t>D</t>
@@ -617,9 +620,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -653,13 +656,76 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,7 +740,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,6 +753,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -694,40 +776,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,55 +797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +819,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,19 +939,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,73 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,37 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,6 +1010,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,21 +1047,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1051,15 +1057,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,6 +1087,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1098,148 +1110,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -1846,10 +1849,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -1857,10 +1860,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -1906,25 +1909,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -1944,38 +1947,38 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2021,19 +2024,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3066,38 +3069,36 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>114</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3136,19 +3137,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3202,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -3262,16 +3263,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>15</v>
@@ -3334,13 +3335,13 @@
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -4374,7 +4375,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -4396,7 +4397,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -4407,7 +4408,7 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
@@ -4418,30 +4419,30 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4452,7 +4453,7 @@
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4463,18 +4464,18 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4513,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -4570,22 +4571,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>22</v>
@@ -4600,22 +4601,22 @@
         <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -4669,19 +4670,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -4802,7 +4803,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4823,46 +4824,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -4886,10 +4887,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -6319,7 +6320,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>63</v>
@@ -6342,7 +6343,7 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -6405,13 +6406,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -6431,7 +6432,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>62</v>
@@ -6440,12 +6441,12 @@
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -6454,12 +6455,12 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>67</v>
@@ -6468,12 +6469,12 @@
         <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
@@ -6482,35 +6483,35 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6558,19 +6559,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -6590,10 +6591,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>51</v>
@@ -6602,15 +6603,15 @@
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>51</v>
@@ -6619,15 +6620,15 @@
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>51</v>
@@ -6636,15 +6637,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>51</v>
@@ -6653,15 +6654,15 @@
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>51</v>
@@ -6670,15 +6671,15 @@
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>51</v>
@@ -6687,7 +6688,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6729,10 +6730,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,15 @@
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
     <sheet name="References" sheetId="18" r:id="rId20"/>
+    <sheet name="Authors" sheetId="21" r:id="rId21"/>
+    <sheet name="Changes" sheetId="22" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$Q$3</definedName>
@@ -48,12 +51,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
@@ -138,13 +141,14 @@
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="Id">'[2]Rate laws'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="170">
   <si>
     <t>Id</t>
   </si>
@@ -176,411 +180,405 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>metabolism_A</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>metabolism_B</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>adenosine- 5’-diphosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
+  </si>
+  <si>
+    <t>C10H15N5O10P2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>A[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>A[e]</t>
+  </si>
+  <si>
+    <t>B[c]</t>
+  </si>
+  <si>
+    <t>B[e]</t>
+  </si>
+  <si>
+    <t>C[c]</t>
+  </si>
+  <si>
+    <t>D[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-A[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-A[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-B[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-B[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-C[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-D[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>transfer_A</t>
+  </si>
+  <si>
+    <t>A[e] ==&gt; A[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>transfer_B</t>
+  </si>
+  <si>
+    <t>B[e] ==&gt; B[c]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transfer_A-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_A * C[c]</t>
+  </si>
+  <si>
+    <t>transfer_B-forward</t>
+  </si>
+  <si>
+    <t>k_cat_B * D[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_length</t>
+  </si>
+  <si>
+    <t>cellCycleLength</t>
+  </si>
+  <si>
+    <t>fraction_dry_weight</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>k_cat_A</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_B</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>metabolism_A</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>metabolism_B</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>adenosine- 5’-diphosphate</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1</t>
-  </si>
-  <si>
-    <t>C10H15N5O10P2</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>alanine</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t>C3H7NO2</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>A[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>A[e]</t>
-  </si>
-  <si>
-    <t>B[c]</t>
-  </si>
-  <si>
-    <t>B[e]</t>
-  </si>
-  <si>
-    <t>C[c]</t>
-  </si>
-  <si>
-    <t>D[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-A[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-A[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-B[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-B[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-C[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-D[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>transfer_A</t>
-  </si>
-  <si>
-    <t>A[e] ==&gt; A[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>transfer_B</t>
-  </si>
-  <si>
-    <t>B[e] ==&gt; B[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transfer_A-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_A * C[c]</t>
-  </si>
-  <si>
-    <t>transfer_B-forward</t>
-  </si>
-  <si>
-    <t>k_cat_B * D[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_length</t>
-  </si>
-  <si>
-    <t>cellCycleLength</t>
-  </si>
-  <si>
-    <t>fraction_dry_weight</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>k_cat_A</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_B</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -612,6 +610,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -619,9 +665,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -656,11 +702,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,23 +747,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,14 +769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -717,7 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,38 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +802,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,6 +827,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -797,10 +842,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -825,7 +871,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,25 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +949,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,25 +1003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,73 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,6 +1056,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1031,21 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1057,6 +1103,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,32 +1150,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1113,136 +1159,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,6 +1458,61 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Model"/>
+      <sheetName val="Taxon"/>
+      <sheetName val="Environment"/>
+      <sheetName val="Submodels"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Species types"/>
+      <sheetName val="Species"/>
+      <sheetName val="Initial species concentrations"/>
+      <sheetName val="Observables"/>
+      <sheetName val="Functions"/>
+      <sheetName val="Reactions"/>
+      <sheetName val="Rate laws"/>
+      <sheetName val="dFBA objectives"/>
+      <sheetName val="dFBA objective reactions"/>
+      <sheetName val="dFBA objective species"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Stop conditions"/>
+      <sheetName val="Evidence"/>
+      <sheetName val="Interpretations"/>
+      <sheetName val="References"/>
+      <sheetName val="Authors"/>
+      <sheetName val="Changes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1675,14 +1776,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1746,25 +1847,22 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="15.1" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
-    </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.1" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1773,23 +1871,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1826,47 +1909,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1909,76 +1992,76 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2024,34 +2107,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M1"/>
       <c r="N1"/>
@@ -3069,36 +3152,36 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3137,34 +3220,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3203,28 +3286,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3263,31 +3346,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3332,31 +3415,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -4375,107 +4458,107 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4514,25 +4597,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4571,64 +4654,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4670,31 +4753,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -4770,22 +4853,22 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4824,52 +4907,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4882,12 +4965,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -4907,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -4917,7 +5139,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -4925,15 +5147,15 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
@@ -4941,25 +5163,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4997,38 +5219,38 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5068,75 +5290,75 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I2" s="6">
         <v>1e-15</v>
@@ -5145,33 +5367,33 @@
         <v>1e-16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="6">
         <v>1e-10</v>
@@ -5180,10 +5402,10 @@
         <v>1e-11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5229,34 +5451,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M1"/>
       <c r="N1"/>
@@ -6274,16 +6496,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>427.201122</v>
@@ -6292,21 +6514,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>89.09318</v>
@@ -6315,21 +6537,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>427.201122</v>
@@ -6338,21 +6560,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>89.09318</v>
@@ -6361,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6406,112 +6628,112 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6559,136 +6781,136 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>1e-6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>0.005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="6">
         <v>1.67e-7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6730,25 +6952,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/understand_rates_model.xlsx
+++ b/tests/fixtures/understand_rates_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="171">
   <si>
     <t>Id</t>
   </si>
@@ -573,6 +573,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -639,6 +642,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -652,9 +658,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -665,10 +668,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -707,70 +710,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +726,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,24 +779,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,7 +824,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +838,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -865,7 +868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,19 +910,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +958,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,25 +1000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,91 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,17 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,11 +1080,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,27 +1136,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1159,136 +1162,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4727,14 +4730,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4745,7 +4748,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4778,6 +4781,9 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -4907,46 +4913,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>12</v>
@@ -4991,31 +4997,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -5033,14 +5039,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5048,7 +5054,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5059,43 +5065,46 @@
         <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
